--- a/MouvementsData.xlsx
+++ b/MouvementsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Rang</t>
   </si>
@@ -34,9 +34,6 @@
     <t>2022A024</t>
   </si>
   <si>
-    <t>Cale1</t>
-  </si>
-  <si>
     <t>2022A259</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>2022A023</t>
   </si>
   <si>
-    <t>C22</t>
-  </si>
-  <si>
     <t>2022R033</t>
   </si>
   <si>
@@ -79,30 +73,12 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Cale2</t>
-  </si>
-  <si>
     <t>oui</t>
   </si>
   <si>
     <t>Prépa</t>
   </si>
   <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>cale2</t>
-  </si>
-  <si>
     <t>FRD</t>
   </si>
   <si>
@@ -179,6 +155,18 @@
   </si>
   <si>
     <t>2022B024</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
   </si>
 </sst>
 </file>
@@ -188,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -203,6 +191,12 @@
     <font>
       <sz val="11"/>
       <color indexed="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +547,8 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -563,7 +557,7 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
@@ -579,17 +573,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -605,17 +599,17 @@
       <c r="C2" s="3">
         <v>5006</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
+      <c r="D2" s="5">
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
@@ -623,13 +617,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>22650</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
+      <c r="D3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
@@ -637,22 +631,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>14700</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
+      <c r="D4" s="5">
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
@@ -660,16 +654,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>21750</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
+      <c r="D5" s="5">
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
@@ -677,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>15880</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
@@ -691,22 +685,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>25120</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
+      <c r="D7" s="5">
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
@@ -714,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>22150</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
+      <c r="D8" s="5">
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
@@ -737,16 +731,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>15020</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
+      <c r="D9" s="5">
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
@@ -754,16 +748,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>25250</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
+      <c r="D10" s="5">
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
@@ -771,16 +765,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>17200</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
+      <c r="D11" s="5">
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
@@ -788,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>22650</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
+      <c r="D12" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
@@ -802,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3">
         <v>14700</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
+      <c r="D13" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
@@ -816,13 +810,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>21750</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
+      <c r="D14" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
@@ -830,22 +824,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>15880</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
+      <c r="D15" s="5">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
         <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
@@ -853,22 +847,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3">
         <v>25120</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
+      <c r="D16" s="5">
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
@@ -876,16 +870,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>22150</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
+      <c r="D17" s="5">
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
@@ -893,16 +887,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
         <v>22150</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
+      <c r="D18" s="5">
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
@@ -910,13 +904,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
         <v>15020</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
+      <c r="D19" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
@@ -924,13 +918,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>25250</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
+      <c r="D20" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
@@ -938,22 +932,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3">
         <v>17200</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
+      <c r="D21" s="5">
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
@@ -961,16 +955,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3">
         <v>22650</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
+      <c r="D22" s="5">
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
@@ -978,16 +972,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3">
         <v>15880</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
+      <c r="D23" s="5">
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
@@ -995,13 +989,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>25120</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
+      <c r="D24" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
@@ -1009,13 +1003,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>22150</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>24</v>
+      <c r="D25" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
@@ -1023,13 +1017,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3">
         <v>15020</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>24</v>
+      <c r="D26" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
@@ -1037,13 +1031,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3">
         <v>25120</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>24</v>
+      <c r="D27" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1">
@@ -1051,13 +1045,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3">
         <v>22150</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>26</v>
+      <c r="D28" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1">
@@ -1065,16 +1059,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3">
         <v>15020</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>26</v>
+      <c r="D29" s="5">
+        <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1">
@@ -1082,16 +1076,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3">
         <v>25250</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>26</v>
+      <c r="D30" s="5">
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1">
@@ -1099,13 +1093,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3">
         <v>17200</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>13</v>
+      <c r="D31" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1">
@@ -1113,13 +1107,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3">
         <v>22650</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>13</v>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1">
@@ -1127,13 +1127,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3">
         <v>14700</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>27</v>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
@@ -1141,13 +1147,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3">
         <v>21750</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>27</v>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
@@ -1155,25 +1167,26 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3">
         <v>15880</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>26</v>
+      <c r="D35" s="5">
+        <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MouvementsData.xlsx
+++ b/MouvementsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Rang</t>
   </si>
@@ -158,15 +158,6 @@
   </si>
   <si>
     <t>MIC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
   </si>
 </sst>
 </file>
@@ -176,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,12 +182,6 @@
     <font>
       <sz val="11"/>
       <color indexed="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,8 +532,8 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -573,7 +558,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -605,8 +590,8 @@
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -642,8 +627,8 @@
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>48</v>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -696,8 +681,8 @@
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>49</v>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -719,8 +704,8 @@
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
-        <v>49</v>
+      <c r="F8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -835,8 +820,8 @@
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
-        <v>50</v>
+      <c r="F15">
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
@@ -858,8 +843,8 @@
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
-        <v>49</v>
+      <c r="F16">
+        <v>2</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -943,8 +928,8 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
-        <v>49</v>
+      <c r="F21">
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -1113,13 +1098,7 @@
         <v>22650</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1">
@@ -1133,13 +1112,7 @@
         <v>14700</v>
       </c>
       <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
@@ -1152,11 +1125,8 @@
       <c r="C34" s="3">
         <v>21750</v>
       </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>48</v>
+      <c r="F34">
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>47</v>
@@ -1178,8 +1148,8 @@
       <c r="E35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F35" t="s">
-        <v>48</v>
+      <c r="F35">
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
@@ -1187,6 +1157,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MouvementsData.xlsx
+++ b/MouvementsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Rang</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>MIC</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -532,8 +535,8 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -607,8 +610,8 @@
       <c r="C3" s="3">
         <v>22650</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
@@ -644,8 +647,8 @@
       <c r="C5" s="3">
         <v>21750</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
@@ -661,8 +664,8 @@
       <c r="C6" s="3">
         <v>15880</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
@@ -721,8 +724,8 @@
       <c r="C9" s="3">
         <v>15020</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
@@ -738,8 +741,8 @@
       <c r="C10" s="3">
         <v>25250</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
@@ -755,8 +758,8 @@
       <c r="C11" s="3">
         <v>17200</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -772,8 +775,8 @@
       <c r="C12" s="3">
         <v>22650</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
@@ -786,8 +789,8 @@
       <c r="C13" s="3">
         <v>14700</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
@@ -800,8 +803,8 @@
       <c r="C14" s="3">
         <v>21750</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
@@ -860,8 +863,8 @@
       <c r="C17" s="3">
         <v>22150</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
@@ -877,8 +880,8 @@
       <c r="C18" s="3">
         <v>22150</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
@@ -894,8 +897,8 @@
       <c r="C19" s="3">
         <v>15020</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
@@ -908,8 +911,8 @@
       <c r="C20" s="3">
         <v>25250</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
@@ -945,8 +948,8 @@
       <c r="C22" s="3">
         <v>22650</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>19</v>
@@ -962,8 +965,8 @@
       <c r="C23" s="3">
         <v>15880</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>19</v>
@@ -979,8 +982,8 @@
       <c r="C24" s="3">
         <v>25120</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
@@ -993,8 +996,8 @@
       <c r="C25" s="3">
         <v>22150</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
@@ -1007,8 +1010,8 @@
       <c r="C26" s="3">
         <v>15020</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
+      <c r="D26" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
@@ -1021,8 +1024,8 @@
       <c r="C27" s="3">
         <v>25120</v>
       </c>
-      <c r="D27" s="5">
-        <v>1</v>
+      <c r="D27" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1">
@@ -1035,8 +1038,8 @@
       <c r="C28" s="3">
         <v>22150</v>
       </c>
-      <c r="D28" s="5">
-        <v>1</v>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1">
@@ -1049,8 +1052,8 @@
       <c r="C29" s="3">
         <v>15020</v>
       </c>
-      <c r="D29" s="5">
-        <v>1</v>
+      <c r="D29" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>19</v>
@@ -1066,8 +1069,8 @@
       <c r="C30" s="3">
         <v>25250</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
+      <c r="D30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
@@ -1083,8 +1086,8 @@
       <c r="C31" s="3">
         <v>17200</v>
       </c>
-      <c r="D31" s="5">
-        <v>1</v>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1">
@@ -1097,8 +1100,8 @@
       <c r="C32" s="3">
         <v>22650</v>
       </c>
-      <c r="D32" s="5">
-        <v>1</v>
+      <c r="D32" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1">
@@ -1111,8 +1114,8 @@
       <c r="C33" s="3">
         <v>14700</v>
       </c>
-      <c r="D33" s="5">
-        <v>1</v>
+      <c r="D33" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">

--- a/MouvementsData.xlsx
+++ b/MouvementsData.xlsx
@@ -536,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1128,6 +1128,9 @@
       <c r="C34" s="3">
         <v>21750</v>
       </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
       <c r="F34">
         <v>1</v>
       </c>

--- a/MouvementsData.xlsx
+++ b/MouvementsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Rang</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>MIC</t>
-  </si>
-  <si>
-    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -610,8 +607,8 @@
       <c r="C3" s="3">
         <v>22650</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
+      <c r="D3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
@@ -647,8 +644,8 @@
       <c r="C5" s="3">
         <v>21750</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
+      <c r="D5" s="5">
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
@@ -664,8 +661,8 @@
       <c r="C6" s="3">
         <v>15880</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
@@ -724,8 +721,8 @@
       <c r="C9" s="3">
         <v>15020</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
+      <c r="D9" s="5">
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
@@ -741,8 +738,8 @@
       <c r="C10" s="3">
         <v>25250</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>48</v>
+      <c r="D10" s="5">
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
@@ -758,8 +755,8 @@
       <c r="C11" s="3">
         <v>17200</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
+      <c r="D11" s="5">
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -775,8 +772,8 @@
       <c r="C12" s="3">
         <v>22650</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
+      <c r="D12" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
@@ -789,8 +786,8 @@
       <c r="C13" s="3">
         <v>14700</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>48</v>
+      <c r="D13" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
@@ -803,8 +800,8 @@
       <c r="C14" s="3">
         <v>21750</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
+      <c r="D14" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
@@ -863,8 +860,8 @@
       <c r="C17" s="3">
         <v>22150</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
+      <c r="D17" s="5">
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
@@ -880,8 +877,8 @@
       <c r="C18" s="3">
         <v>22150</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>48</v>
+      <c r="D18" s="5">
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
@@ -897,8 +894,8 @@
       <c r="C19" s="3">
         <v>15020</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
+      <c r="D19" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
@@ -911,8 +908,8 @@
       <c r="C20" s="3">
         <v>25250</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>48</v>
+      <c r="D20" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
@@ -948,8 +945,8 @@
       <c r="C22" s="3">
         <v>22650</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
+      <c r="D22" s="5">
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>19</v>
@@ -965,8 +962,8 @@
       <c r="C23" s="3">
         <v>15880</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
+      <c r="D23" s="5">
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>19</v>
@@ -982,8 +979,8 @@
       <c r="C24" s="3">
         <v>25120</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>48</v>
+      <c r="D24" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
@@ -996,8 +993,8 @@
       <c r="C25" s="3">
         <v>22150</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>48</v>
+      <c r="D25" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
@@ -1010,8 +1007,8 @@
       <c r="C26" s="3">
         <v>15020</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>48</v>
+      <c r="D26" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
@@ -1024,8 +1021,8 @@
       <c r="C27" s="3">
         <v>25120</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>48</v>
+      <c r="D27" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1">
@@ -1038,8 +1035,8 @@
       <c r="C28" s="3">
         <v>22150</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>48</v>
+      <c r="D28" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1">
@@ -1052,8 +1049,8 @@
       <c r="C29" s="3">
         <v>15020</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>48</v>
+      <c r="D29" s="5">
+        <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>19</v>
@@ -1069,8 +1066,8 @@
       <c r="C30" s="3">
         <v>25250</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>48</v>
+      <c r="D30" s="5">
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
@@ -1086,8 +1083,8 @@
       <c r="C31" s="3">
         <v>17200</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>48</v>
+      <c r="D31" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1">
@@ -1100,8 +1097,8 @@
       <c r="C32" s="3">
         <v>22650</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>48</v>
+      <c r="D32" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1">
@@ -1114,8 +1111,8 @@
       <c r="C33" s="3">
         <v>14700</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>48</v>
+      <c r="D33" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
